--- a/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_4_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_4_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2389887.677288713</v>
+        <v>2389887.677288706</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500628</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500628</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.3405017773</v>
+        <v>3940022.790763976</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.3405017773</v>
+        <v>3940022.790763976</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647482716.269086</v>
+        <v>62480733.92989162</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -730,7 +730,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X2" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y2" t="n">
         <v>511.3174326828064</v>
@@ -758,13 +758,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.495661159869</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H5" t="n">
         <v>347.8590406130752</v>
@@ -995,13 +995,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R7" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V8" t="n">
         <v>629.8510241668239</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1441,7 +1441,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X11" t="n">
-        <v>590.8934891676915</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y11" t="n">
         <v>511.3174326828064</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>14.39810218700129</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C14" t="n">
         <v>449.4745782429939</v>
@@ -1681,7 +1681,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y14" t="n">
-        <v>509.92908838983</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="15">
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H17" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
         <v>408.192915058951</v>
@@ -1991,7 +1991,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X18" t="n">
         <v>419.8627394453875</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>14.39810218700129</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.39810218700129</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.4706963207764</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404653</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S27" t="n">
         <v>408.192915058951</v>
@@ -2718,67 +2718,67 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>359.6204767757446</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T29" t="n">
         <v>560.964918411981</v>
@@ -2863,7 +2863,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y29" t="n">
         <v>511.3174326828064</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4706963201659</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3213,40 +3213,40 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>14.39810218700126</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>150.8146863564251</v>
@@ -3274,7 +3274,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C35" t="n">
-        <v>448.0862339500848</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D35" t="n">
         <v>410.3391557398498</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F38" t="n">
         <v>404.8896287080119</v>
@@ -3571,7 +3571,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W38" t="n">
-        <v>636.9851316880379</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X38" t="n">
         <v>592.2818334606677</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C41" t="n">
         <v>449.4745782429939</v>
@@ -3811,7 +3811,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X41" t="n">
-        <v>590.8934891677582</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y41" t="n">
         <v>511.3174326828064</v>
@@ -3875,7 +3875,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3887,7 +3887,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
-        <v>430.8394429522552</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X42" t="n">
         <v>419.8627394453875</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>346.4706963200974</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4336,46 +4336,46 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010445</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523947</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396619</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337363</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
         <v>3583.51196363841</v>
@@ -4406,10 +4406,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H3" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4470,34 +4470,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
         <v>457.4949902104935</v>
@@ -4539,7 +4539,7 @@
         <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.3693006790323</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4549,19 +4549,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
         <v>492.3327682960356</v>
@@ -4570,55 +4570,55 @@
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>3071.357825473567</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M5" t="n">
-        <v>3553.537024987069</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N5" t="n">
-        <v>4118.580088859741</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4810,37 +4810,37 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010445</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523947</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396619</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337363</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
         <v>5462.811290515621</v>
@@ -5044,49 +5044,49 @@
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K11" t="n">
-        <v>1936.671378010444</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010445</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523947</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396619</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337363</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
         <v>3583.51196363841</v>
@@ -5208,43 +5208,43 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
         <v>140.96</v>
@@ -5281,55 +5281,55 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>2124.71495243113</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010445</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523947</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396619</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5445,40 +5445,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
         <v>140.96</v>
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5527,19 +5527,19 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L17" t="n">
-        <v>2332.601309399844</v>
+        <v>3159.388586083262</v>
       </c>
       <c r="M17" t="n">
-        <v>2814.780508913348</v>
+        <v>3641.567785596765</v>
       </c>
       <c r="N17" t="n">
-        <v>4465.52036104992</v>
+        <v>4206.610849469437</v>
       </c>
       <c r="O17" t="n">
-        <v>5755.312162100367</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P17" t="n">
-        <v>6591.17949019778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q17" t="n">
         <v>7048</v>
@@ -5548,25 +5548,25 @@
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5624,19 +5624,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S18" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T18" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U18" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V18" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W18" t="n">
         <v>3503.082427021609</v>
@@ -5682,40 +5682,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
         <v>140.96</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5770,13 +5770,13 @@
         <v>3240.782198133642</v>
       </c>
       <c r="N20" t="n">
-        <v>4845.157279159623</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O20" t="n">
-        <v>5755.312162100367</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
         <v>7048</v>
@@ -5785,25 +5785,25 @@
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5919,43 +5919,43 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893197</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
         <v>140.96</v>
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>2153.765102156984</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L23" t="n">
-        <v>3071.357825473567</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M23" t="n">
-        <v>3553.537024987069</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N23" t="n">
-        <v>4118.580088859741</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O23" t="n">
-        <v>5028.734971800485</v>
+        <v>4924.096525034862</v>
       </c>
       <c r="P23" t="n">
-        <v>5864.602299897899</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6129,16 +6129,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5035375626276</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C25" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
         <v>140.96</v>
@@ -6156,49 +6156,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>155.5035375626276</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V25" t="n">
-        <v>155.5035375626276</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
-        <v>155.5035375626276</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X25" t="n">
-        <v>155.5035375626276</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.5035375626276</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="26">
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546828</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048855</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626352037</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859072371</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361349856</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003240306</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H26" t="n">
-        <v>140.960000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397844</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154366</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>2124.714952431144</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L26" t="n">
-        <v>3681.051378011143</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577524646</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641397318</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524338062</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852435475</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362237697</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.0000000007</v>
+        <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183878</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464705</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922543616</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766819552</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073909504</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595666405</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340431247</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6287,76 +6287,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2287.112034235917</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C27" t="n">
-        <v>1922.364647927312</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D27" t="n">
-        <v>1570.912438939734</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E27" t="n">
-        <v>1224.779007402448</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F27" t="n">
-        <v>881.7120959500471</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G27" t="n">
-        <v>555.8565327448547</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H27" t="n">
-        <v>250.9899876547019</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I27" t="n">
-        <v>140.960000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J27" t="n">
-        <v>558.8475295149357</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K27" t="n">
-        <v>1250.415257213093</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L27" t="n">
-        <v>2197.270784374331</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M27" t="n">
-        <v>3071.63387611719</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N27" t="n">
-        <v>4014.060204215324</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O27" t="n">
-        <v>4993.313206182062</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P27" t="n">
-        <v>5699.926775368549</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q27" t="n">
-        <v>5925.707874249729</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249259</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S27" t="n">
-        <v>5159.222422432136</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T27" t="n">
-        <v>4762.56467407063</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U27" t="n">
-        <v>4358.520619043187</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V27" t="n">
-        <v>3939.822975415389</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W27" t="n">
-        <v>3503.082427021623</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X27" t="n">
-        <v>3078.978649804059</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y27" t="n">
-        <v>2675.553000545338</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="28">
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.960000000014</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>140.960000000014</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>140.960000000014</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>140.960000000014</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>140.960000000014</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>140.960000000014</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
-        <v>140.960000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
-        <v>140.960000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J28" t="n">
-        <v>290.4466099967276</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893337</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
-        <v>307.8416045893337</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893337</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893337</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.8416045893337</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518835</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020861</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324043</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044378</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F29" t="n">
-        <v>894.235804106992</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G29" t="n">
-        <v>492.332768296037</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H29" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397719</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>675.365442515424</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>2124.714952431132</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010514</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577524017</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396689</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337432</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434846</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362237068</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6684.746993155884</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T29" t="n">
-        <v>6118.115762436712</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U29" t="n">
-        <v>5462.811290515623</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134791559</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.511963638412</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708403254</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="30">
@@ -6524,76 +6524,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034235905</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.3646479273</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.912438939721</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007402436</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959500346</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327448421</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876546893</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I30" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295149231</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.41525721308</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374318</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117177</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204215312</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.31320618205</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775368537</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874249717</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249246</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674070617</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619043175</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975415377</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.08242702161</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649804047</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000545326</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="31">
@@ -6603,76 +6603,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J31" t="n">
-        <v>290.446609996715</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S31" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>140.9600000000014</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>140.9600000000014</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546199</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048225</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351407</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071742</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361343562</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
-        <v>490.9304003234013</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H32" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397719</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>675.365442515424</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K32" t="n">
-        <v>1936.671378010496</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010514</v>
+        <v>2712.238227509546</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577524017</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396689</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337432</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434846</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362237068</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183248</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464075</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542987</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818922</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908874</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665775</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430618</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.112034235905</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.3646479273</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.912438939721</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.779007402436</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500346</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448421</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546893</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I33" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149231</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.41525721308</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374318</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117177</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.060204215312</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.31320618205</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368537</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249717</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249246</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070617</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043175</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415377</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.08242702161</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804047</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.553000545326</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J34" t="n">
-        <v>290.446609996715</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M34" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S34" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>307.841604589321</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.503537562629</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546199</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020861</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324043</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044378</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>894.235804106992</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>492.332768296037</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397719</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>675.365442515424</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K35" t="n">
-        <v>2124.714952431132</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L35" t="n">
-        <v>3681.051378010514</v>
+        <v>3585.390275303557</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577524017</v>
+        <v>4067.569474817059</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396689</v>
+        <v>4632.612538689732</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337432</v>
+        <v>5542.767421630476</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434846</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362237068</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183248</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464075</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542987</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818922</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908874</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665775</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430618</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2287.112034235905</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.3646479273</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D36" t="n">
-        <v>1570.912438939721</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E36" t="n">
-        <v>1224.779007402436</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500346</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448421</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546893</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I36" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149231</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K36" t="n">
-        <v>1250.41525721308</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L36" t="n">
-        <v>2197.270784374318</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117177</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N36" t="n">
-        <v>4014.060204215312</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O36" t="n">
-        <v>4993.31320618205</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P36" t="n">
-        <v>5699.926775368537</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q36" t="n">
-        <v>5925.707874249717</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5571.538498249246</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S36" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070617</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043175</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415377</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.08242702161</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X36" t="n">
-        <v>3078.978649804047</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.553000545326</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J37" t="n">
-        <v>290.446609996715</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M37" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N37" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O37" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P37" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R37" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S37" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U37" t="n">
-        <v>307.841604589321</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V37" t="n">
-        <v>307.841604589321</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W37" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518835</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020861</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324043</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044378</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>894.235804106992</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>492.332768296037</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397719</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>675.365442515424</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>2124.714952431132</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L38" t="n">
-        <v>3681.051378010514</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M38" t="n">
-        <v>4163.230577524017</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396689</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337432</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434846</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362237068</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183248</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464075</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542987</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818922</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.77644188151</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.511963638412</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403254</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.112034235905</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.3646479273</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.912438939721</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.779007402436</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500346</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448421</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546893</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I39" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149231</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.41525721308</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374318</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117177</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.060204215312</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.31320618205</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368537</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249717</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5571.538498249246</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070617</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043175</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415377</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.08242702161</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804047</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545326</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="I40" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J40" t="n">
-        <v>290.446609996715</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518835</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020861</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324043</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044378</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>894.235804106992</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
-        <v>492.332768296037</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397719</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>675.365442515424</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>1936.671378010496</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010514</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577524017</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396689</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337432</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434846</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362237068</v>
+        <v>7048</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183248</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464075</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542987</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818922</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908874</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.511963638412</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403254</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235905</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.3646479273</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.912438939721</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402436</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500346</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448421</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546893</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149231</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.41525721308</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374318</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117177</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.060204215312</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.31320618205</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368537</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249717</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.98930637291</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5157.673230555787</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T42" t="n">
-        <v>4761.015482194281</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U42" t="n">
-        <v>4356.971427166838</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V42" t="n">
-        <v>3938.27378353904</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.08242702161</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804047</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545326</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
-        <v>239.3480243885958</v>
+        <v>140.96</v>
       </c>
       <c r="I43" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J43" t="n">
-        <v>290.446609996715</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M43" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N43" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O43" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P43" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R43" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S43" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>307.841604589321</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U43" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397719</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>675.365442515424</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K44" t="n">
-        <v>1415.008586083263</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L44" t="n">
-        <v>3071.357825473567</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M44" t="n">
-        <v>3553.537024987069</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N44" t="n">
-        <v>4118.580088859741</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800485</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235905</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.3646479273</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.912438939721</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E45" t="n">
-        <v>1224.779007402436</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500346</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448421</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546893</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149231</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.41525721308</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374318</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117177</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.060204215312</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.31320618205</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368537</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249717</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249246</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S45" t="n">
         <v>5159.222422432123</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070617</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043175</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415377</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.08242702161</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804047</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545326</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="J46" t="n">
-        <v>290.446609996715</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.841604589321</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.841604589321</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.841604589321</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.841604589321</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.9600000000014</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>265.407353885553</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8218,16 +8218,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>29.3435855816706</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q5" t="n">
         <v>615.8520732695737</v>
@@ -8458,19 +8458,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>214.8909222650873</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>265.4073538855533</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8692,34 +8692,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>526.93211305776</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>459.8234496459304</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>645.1956588512439</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>839.6117546116195</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9175,22 +9175,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>383.4716344542448</v>
+        <v>29.14432035687435</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
         <v>176.4768357656695</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1049.830320356877</v>
+        <v>1049.830320356875</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>315.9139665186131</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>223.759681342045</v>
       </c>
       <c r="Q23" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>645.1956588519351</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>603.2839282494456</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>645.1956588513121</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>721.5474740429295</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K32" t="n">
-        <v>526.9321130578113</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>835.1386633166003</v>
+        <v>29.51871305977443</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>645.1956588513121</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>96.62737647160145</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10831,16 +10831,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>645.1956588513121</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>265.4073538855533</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>526.9321130578113</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>835.1386633166003</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,16 +11080,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>147.4078661503588</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>746.2187031047683</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11317,16 +11317,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>179.2523876827513</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23329,7 +23329,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
         <v>199.1703102162162</v>
@@ -23487,7 +23487,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
-        <v>233.0455432431063</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y13" t="n">
         <v>287.4653528494624</v>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23569,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.388344292976342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>33.95752167278977</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W19" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24189,7 +24189,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V22" t="n">
         <v>199.1703102162162</v>
@@ -24198,7 +24198,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X22" t="n">
-        <v>233.0455432431063</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y22" t="n">
         <v>287.4653528494624</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C25" t="n">
-        <v>272.7252466480447</v>
+        <v>107.5124581046183</v>
       </c>
       <c r="D25" t="n">
         <v>285.5362180555555</v>
@@ -24381,7 +24381,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F25" t="n">
-        <v>259.9847537807406</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G25" t="n">
         <v>242.4092826775956</v>
@@ -24426,7 +24426,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
         <v>199.1703102162162</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292298768</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.533699957574299</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121.9010117936522</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C28" t="n">
         <v>272.7252466480447</v>
@@ -24666,7 +24666,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.388344292909892</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24751,7 +24751,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344292909323</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25101,7 +25101,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
-        <v>83.00604195770715</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.388344292909096</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G37" t="n">
-        <v>77.1964941341692</v>
+        <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
         <v>205.3472244622743</v>
@@ -25374,13 +25374,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>226.3728098387097</v>
+        <v>211.9747076517084</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.388344292909665</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25575,7 +25575,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25623,7 +25623,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.6567084507444</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.388344292909551</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.533699957573276</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D43" t="n">
-        <v>217.7275736568375</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E43" t="n">
         <v>280.9809048369565</v>
@@ -25812,7 +25812,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>199.1703102162162</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.388344292977763</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16723.9852657937</v>
+        <v>1378975.792486732</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33270.4033922273</v>
+        <v>2732806.110844271</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49816.82151866088</v>
+        <v>4086636.429201811</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68649.4192142697</v>
+        <v>5299282.597556977</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87482.01690987851</v>
+        <v>6511928.765912143</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106314.6146054873</v>
+        <v>7724574.9342673</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125147.2123010962</v>
+        <v>8937221.102622457</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143979.809996705</v>
+        <v>10149867.27097761</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162812.4076923138</v>
+        <v>11362513.43933277</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181645.0053879226</v>
+        <v>12575159.60768792</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200477.6030835314</v>
+        <v>13787805.77604308</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219310.2007791403</v>
+        <v>15000451.94439825</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238142.7984747493</v>
+        <v>16213098.11275342</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256975.3961703583</v>
+        <v>17425744.2811086</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275807.9938659674</v>
+        <v>18638390.44946378</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245017</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323125</v>
       </c>
       <c r="F2" t="n">
+        <v>761428.9894323122</v>
+      </c>
+      <c r="G2" t="n">
         <v>761428.9894323124</v>
-      </c>
-      <c r="G2" t="n">
-        <v>761428.9894323123</v>
       </c>
       <c r="H2" t="n">
         <v>761428.9894323125</v>
       </c>
       <c r="I2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="J2" t="n">
-        <v>761428.9894323489</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="K2" t="n">
-        <v>761428.9894323159</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="L2" t="n">
-        <v>761428.9894323158</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="M2" t="n">
-        <v>761428.9894323159</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="N2" t="n">
-        <v>761428.9894323162</v>
+        <v>761428.9894323124</v>
       </c>
       <c r="O2" t="n">
-        <v>761428.989432316</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="P2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.9894323124</v>
       </c>
     </row>
     <row r="3">
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000000616</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
-        <v>-5.371792269249757e-08</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,43 +26426,43 @@
         <v>101648.5408862316</v>
       </c>
       <c r="C4" t="n">
-        <v>101346.5898317504</v>
+        <v>101346.5898317505</v>
       </c>
       <c r="D4" t="n">
-        <v>101044.2291618174</v>
+        <v>101044.2291618175</v>
       </c>
       <c r="E4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="F4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="G4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="H4" t="n">
         <v>26356.19966309947</v>
       </c>
-      <c r="H4" t="n">
-        <v>26356.19966309948</v>
-      </c>
       <c r="I4" t="n">
-        <v>26356.19966309948</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="J4" t="n">
-        <v>26356.19966310507</v>
+        <v>26356.19966309945</v>
       </c>
       <c r="K4" t="n">
-        <v>26356.19966310004</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="L4" t="n">
-        <v>26356.19966310003</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="M4" t="n">
-        <v>26356.19966310004</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="N4" t="n">
-        <v>26356.19966310004</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="O4" t="n">
-        <v>26356.19966310003</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="P4" t="n">
         <v>26356.19966309947</v>
@@ -26499,25 +26499,25 @@
         <v>138979.4</v>
       </c>
       <c r="J5" t="n">
-        <v>138979.4000000106</v>
+        <v>138979.4</v>
       </c>
       <c r="K5" t="n">
-        <v>138979.4000000011</v>
+        <v>138979.4</v>
       </c>
       <c r="L5" t="n">
-        <v>138979.4000000011</v>
+        <v>138979.4</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.4000000011</v>
+        <v>138979.4</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.4000000011</v>
+        <v>138979.4</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.4000000011</v>
+        <v>138979.4</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.4000000011</v>
+        <v>138979.4</v>
       </c>
     </row>
     <row r="6">
@@ -26530,46 +26530,46 @@
         <v>-1468875.03866173</v>
       </c>
       <c r="C6" t="n">
-        <v>576125.9123927511</v>
+        <v>576125.912392751</v>
       </c>
       <c r="D6" t="n">
-        <v>576428.2730626841</v>
+        <v>576428.273062684</v>
       </c>
       <c r="E6" t="n">
+        <v>596093.389769213</v>
+      </c>
+      <c r="F6" t="n">
         <v>596093.3897692128</v>
       </c>
-      <c r="F6" t="n">
-        <v>596093.3897692129</v>
-      </c>
       <c r="G6" t="n">
-        <v>596093.3897692128</v>
+        <v>596093.389769213</v>
       </c>
       <c r="H6" t="n">
         <v>596093.389769213</v>
       </c>
       <c r="I6" t="n">
+        <v>596093.3897692128</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-24130.61023078702</v>
+      </c>
+      <c r="K6" t="n">
         <v>596093.389769213</v>
       </c>
-      <c r="J6" t="n">
-        <v>-24130.6102308284</v>
-      </c>
-      <c r="K6" t="n">
-        <v>596093.3897692702</v>
-      </c>
       <c r="L6" t="n">
-        <v>596093.3897692147</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="M6" t="n">
-        <v>596093.3897692148</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="N6" t="n">
-        <v>596093.389769215</v>
+        <v>596093.389769213</v>
       </c>
       <c r="O6" t="n">
-        <v>596093.3897692149</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="P6" t="n">
-        <v>596093.389769212</v>
+        <v>596093.389769213</v>
       </c>
     </row>
   </sheetData>
@@ -26943,7 +26943,7 @@
         <v>1762</v>
       </c>
       <c r="J4" t="n">
-        <v>1762.000000000175</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
         <v>1762</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1762.000000000168</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.502403106794439e-10</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27574,7 +27574,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27602,13 +27602,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573063</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27690,13 +27690,13 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>38.63038883044607</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
@@ -27735,7 +27735,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y4" t="n">
-        <v>400</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="5">
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27839,13 +27839,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -28033,13 +28033,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573063</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -34828,22 +34828,22 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>1141.752258948505</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
-        <v>919.3483666068121</v>
+        <v>1184.755720492365</v>
       </c>
       <c r="P2" t="n">
         <v>844.3104324216301</v>
@@ -34986,13 +34986,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>189.6269645847022</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35031,7 +35031,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.5346471505376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -35062,16 +35062,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>956.2049222650876</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35083,7 +35083,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q5" t="n">
         <v>1077.286931655656</v>
@@ -35226,7 +35226,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
-        <v>168.7357375896766</v>
+        <v>168.7357375896767</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35302,19 +35302,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>1141.752258948505</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
-        <v>487.0496964782857</v>
+        <v>752.457050363839</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35463,7 +35463,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
-        <v>168.7357375896766</v>
+        <v>168.7357375896767</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -35536,34 +35536,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1274.046399489921</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1304.133882067561</v>
       </c>
       <c r="Q11" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,16 +35773,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.056995534661</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,7 +35791,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1758.960121218432</v>
       </c>
       <c r="P14" t="n">
         <v>844.3104324216301</v>
@@ -35800,7 +35800,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36019,22 +36019,22 @@
         <v>747.114286432161</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>1302.820001061057</v>
+        <v>948.4926869636863</v>
       </c>
       <c r="P17" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36262,7 +36262,7 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>1620.580889925233</v>
+        <v>1620.580889925231</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36484,13 +36484,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1063.028252950774</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L23" t="n">
         <v>926.861336683417</v>
@@ -36505,13 +36505,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1068.070113763675</v>
       </c>
       <c r="Q23" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,16 +36721,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L26" t="n">
-        <v>1572.056995535353</v>
+        <v>1762</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36739,7 +36739,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>919.3483666068121</v>
+        <v>1522.632294856257</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
@@ -36958,7 +36958,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
@@ -36967,7 +36967,7 @@
         <v>1463.989403955261</v>
       </c>
       <c r="L29" t="n">
-        <v>1572.05699553473</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36976,7 +36976,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1640.895840649742</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
@@ -37195,22 +37195,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K32" t="n">
-        <v>1274.046399489972</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>956.3800497431916</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37222,7 +37222,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37435,13 +37435,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1572.05699553473</v>
+        <v>1762</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37453,7 +37453,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>940.9378088932315</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
@@ -37675,16 +37675,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>1572.05699553473</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>752.457050363839</v>
       </c>
       <c r="N38" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37912,10 +37912,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1274.046399489972</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,16 +37924,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1066.756232757171</v>
       </c>
       <c r="P41" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38146,13 +38146,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K44" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L44" t="n">
-        <v>1673.080039788185</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38161,16 +38161,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
-        <v>919.3483666068121</v>
+        <v>1098.600754289563</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
